--- a/Code/Results/Cases/Case_5_85/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_85/res_line/loading_percent.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>23.00920023551585</v>
+        <v>18.67841498217127</v>
       </c>
       <c r="C2">
-        <v>20.17720698457762</v>
+        <v>15.58052727591503</v>
       </c>
       <c r="D2">
-        <v>3.25761193835525</v>
+        <v>6.381431055820447</v>
       </c>
       <c r="E2">
-        <v>6.656409105920664</v>
+        <v>11.55663407063</v>
       </c>
       <c r="F2">
-        <v>36.94762849373047</v>
+        <v>44.0447152764466</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>4.251792669784106</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I2">
-        <v>21.13948662200721</v>
+        <v>28.41591799105309</v>
       </c>
       <c r="J2">
-        <v>5.626638019808952</v>
+        <v>9.812307771001171</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,10 +454,10 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>16.70530288993799</v>
+        <v>19.86841817526788</v>
       </c>
       <c r="N2">
-        <v>12.75860251012723</v>
+        <v>19.74095577190074</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>21.37493498006557</v>
+        <v>18.25681080096359</v>
       </c>
       <c r="C3">
-        <v>18.80479593456959</v>
+        <v>15.17686764404522</v>
       </c>
       <c r="D3">
-        <v>3.21712814502984</v>
+        <v>6.380924773044715</v>
       </c>
       <c r="E3">
-        <v>6.626691288458055</v>
+        <v>11.57567309220718</v>
       </c>
       <c r="F3">
-        <v>35.58511720926074</v>
+        <v>43.91941992684603</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I3">
-        <v>20.7375262964203</v>
+        <v>28.43656366824172</v>
       </c>
       <c r="J3">
-        <v>5.658237052754478</v>
+        <v>9.835241316783421</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,10 +501,10 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>15.87548913976723</v>
+        <v>19.75657196039053</v>
       </c>
       <c r="N3">
-        <v>13.02976952040287</v>
+        <v>19.8129151788179</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>20.32096823491295</v>
+        <v>17.99843605282652</v>
       </c>
       <c r="C4">
-        <v>17.93153630179402</v>
+        <v>14.92853205735604</v>
       </c>
       <c r="D4">
-        <v>3.192683038051484</v>
+        <v>6.380833982313594</v>
       </c>
       <c r="E4">
-        <v>6.611309119038371</v>
+        <v>11.58867990716314</v>
       </c>
       <c r="F4">
-        <v>34.76540665145668</v>
+        <v>43.85473432854631</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I4">
-        <v>20.51116698561374</v>
+        <v>28.45626921228926</v>
       </c>
       <c r="J4">
-        <v>5.679931596099907</v>
+        <v>9.850360458558169</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,10 +548,10 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>15.3568123366306</v>
+        <v>19.69225295019293</v>
       </c>
       <c r="N4">
-        <v>13.19919188912017</v>
+        <v>19.85908292750368</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>19.89598515459613</v>
+        <v>17.89343537626833</v>
       </c>
       <c r="C5">
-        <v>17.56715354749628</v>
+        <v>14.82737912150118</v>
       </c>
       <c r="D5">
-        <v>3.182816664778577</v>
+        <v>6.380852546114456</v>
       </c>
       <c r="E5">
-        <v>6.605743600912996</v>
+        <v>11.59431169799893</v>
       </c>
       <c r="F5">
-        <v>34.43582373496619</v>
+        <v>43.83146349030735</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I5">
-        <v>20.42389793699692</v>
+        <v>28.46606021128455</v>
       </c>
       <c r="J5">
-        <v>5.689332679935108</v>
+        <v>9.856782919271541</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,10 +595,10 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>15.14336616941334</v>
+        <v>19.66715794034377</v>
       </c>
       <c r="N5">
-        <v>13.2690064344115</v>
+        <v>19.87839697488432</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>19.82804056711694</v>
+        <v>17.87602246339823</v>
       </c>
       <c r="C6">
-        <v>17.5061357561838</v>
+        <v>14.81059055635248</v>
       </c>
       <c r="D6">
-        <v>3.18118388984395</v>
+        <v>6.380858990999593</v>
       </c>
       <c r="E6">
-        <v>6.604861397240115</v>
+        <v>11.59526687719415</v>
       </c>
       <c r="F6">
-        <v>34.38137260865049</v>
+        <v>43.82778616641863</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I6">
-        <v>20.40970238631243</v>
+        <v>28.46779213812418</v>
       </c>
       <c r="J6">
-        <v>5.690927121777188</v>
+        <v>9.857865154341702</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,10 +642,10 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>15.1078053966414</v>
+        <v>19.66305886946195</v>
       </c>
       <c r="N6">
-        <v>13.28064689999766</v>
+        <v>19.88163431458894</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>20.31505480159918</v>
+        <v>17.99701858504258</v>
       </c>
       <c r="C7">
-        <v>17.92665651572414</v>
+        <v>14.92716746110031</v>
       </c>
       <c r="D7">
-        <v>3.19254960137997</v>
+        <v>6.380834007388833</v>
       </c>
       <c r="E7">
-        <v>6.61123123753143</v>
+        <v>11.58875451722243</v>
       </c>
       <c r="F7">
-        <v>34.76094343786168</v>
+        <v>43.8544079726228</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I7">
-        <v>20.50997013003759</v>
+        <v>28.45639413718213</v>
       </c>
       <c r="J7">
-        <v>5.680056133781897</v>
+        <v>9.850446015758365</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,10 +689,10 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>15.35394182169791</v>
+        <v>19.69190996784502</v>
       </c>
       <c r="N7">
-        <v>13.20013025080127</v>
+        <v>19.85934137605486</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>22.45609946356159</v>
+        <v>18.53304174297647</v>
       </c>
       <c r="C8">
-        <v>19.70737861948338</v>
+        <v>15.44154547841037</v>
       </c>
       <c r="D8">
-        <v>3.243562079793181</v>
+        <v>6.381210946943813</v>
       </c>
       <c r="E8">
-        <v>6.645557127421621</v>
+        <v>11.56292560674217</v>
       </c>
       <c r="F8">
-        <v>36.47444809677931</v>
+        <v>43.99897862159582</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I8">
-        <v>20.99654831991062</v>
+        <v>28.42157396885901</v>
       </c>
       <c r="J8">
-        <v>5.637047422894551</v>
+        <v>9.820000038012115</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,10 +736,10 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>16.4212052275405</v>
+        <v>19.82896247084893</v>
       </c>
       <c r="N8">
-        <v>12.85151717702261</v>
+        <v>19.76535631902192</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>26.2614073826384</v>
+        <v>19.58105183694634</v>
       </c>
       <c r="C9">
-        <v>23.04369942780243</v>
+        <v>16.43933353184716</v>
       </c>
       <c r="D9">
-        <v>3.347333881938299</v>
+        <v>6.383687001542272</v>
       </c>
       <c r="E9">
-        <v>6.736425024248936</v>
+        <v>11.52271041742152</v>
       </c>
       <c r="F9">
-        <v>39.9615519693839</v>
+        <v>44.37906107582295</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I9">
-        <v>22.12028903272095</v>
+        <v>28.40932922777305</v>
       </c>
       <c r="J9">
-        <v>5.571697571520103</v>
+        <v>9.768516665221979</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>18.43407539941916</v>
+        <v>20.13130332436365</v>
       </c>
       <c r="N9">
-        <v>12.18931794476329</v>
+        <v>19.59673510657795</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>28.82981227855529</v>
+        <v>20.3401327206374</v>
       </c>
       <c r="C10">
-        <v>25.3253540695945</v>
+        <v>17.15691700166241</v>
       </c>
       <c r="D10">
-        <v>3.426662083035769</v>
+        <v>6.386553371959587</v>
       </c>
       <c r="E10">
-        <v>6.818766660108559</v>
+        <v>11.49950875631161</v>
       </c>
       <c r="F10">
-        <v>42.5962393997934</v>
+        <v>44.71616186142798</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I10">
-        <v>23.05961218619167</v>
+        <v>28.43480893340833</v>
       </c>
       <c r="J10">
-        <v>5.536498428329799</v>
+        <v>9.73568493171828</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,10 +830,10 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>20.09478887920585</v>
+        <v>20.37249784705768</v>
       </c>
       <c r="N10">
-        <v>11.71335003462274</v>
+        <v>19.482321190294</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>29.95214872061383</v>
+        <v>20.68134180755722</v>
       </c>
       <c r="C11">
-        <v>26.32718480741296</v>
+        <v>17.47831832097467</v>
       </c>
       <c r="D11">
-        <v>3.463654800831575</v>
+        <v>6.388082347605854</v>
       </c>
       <c r="E11">
-        <v>6.859905630352521</v>
+        <v>11.49032751390446</v>
       </c>
       <c r="F11">
-        <v>43.81124739920255</v>
+        <v>44.88178729673984</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I11">
-        <v>23.51407707315851</v>
+        <v>28.45393521285767</v>
       </c>
       <c r="J11">
-        <v>5.523583046587076</v>
+        <v>9.721829280286684</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,10 +877,10 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>20.87883801119586</v>
+        <v>20.48603514792901</v>
       </c>
       <c r="N11">
-        <v>11.49856635876049</v>
+        <v>19.43230925413054</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>30.37084131668142</v>
+        <v>20.80982493380789</v>
       </c>
       <c r="C12">
-        <v>26.70166735777689</v>
+        <v>17.5991748550555</v>
       </c>
       <c r="D12">
-        <v>3.477817651121871</v>
+        <v>6.38869347917799</v>
       </c>
       <c r="E12">
-        <v>6.876040682349776</v>
+        <v>11.48704795270112</v>
       </c>
       <c r="F12">
-        <v>44.27388606215656</v>
+        <v>44.9462404131806</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I12">
-        <v>23.69030753262859</v>
+        <v>28.46226373863281</v>
       </c>
       <c r="J12">
-        <v>5.51916784080177</v>
+        <v>9.716737480519393</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,10 +924,10 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>21.17134688095591</v>
+        <v>20.52954822682887</v>
       </c>
       <c r="N12">
-        <v>11.41744048875845</v>
+        <v>19.4136623894403</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>30.28094372865127</v>
+        <v>20.78218811574161</v>
       </c>
       <c r="C13">
-        <v>26.62122793244688</v>
+        <v>17.57318601664471</v>
       </c>
       <c r="D13">
-        <v>3.474760117712892</v>
+        <v>6.3885604350468</v>
       </c>
       <c r="E13">
-        <v>6.872540486571993</v>
+        <v>11.48774550043745</v>
       </c>
       <c r="F13">
-        <v>44.17413155307317</v>
+        <v>44.93228267346127</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I13">
-        <v>23.65216525962121</v>
+        <v>28.46042172434607</v>
       </c>
       <c r="J13">
-        <v>5.520097062202789</v>
+        <v>9.717827198932957</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,10 +971,10 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>21.10854126617159</v>
+        <v>20.52015431093047</v>
       </c>
       <c r="N13">
-        <v>11.43490378034333</v>
+        <v>19.4176653755862</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>29.98671939326811</v>
+        <v>20.69192747305243</v>
       </c>
       <c r="C14">
-        <v>26.35808978622098</v>
+        <v>17.48827901391654</v>
       </c>
       <c r="D14">
-        <v>3.464816734271947</v>
+        <v>6.388131982856442</v>
       </c>
       <c r="E14">
-        <v>6.861221748029264</v>
+        <v>11.49005375252584</v>
       </c>
       <c r="F14">
-        <v>43.84925663376028</v>
+        <v>44.88705532346356</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I14">
-        <v>23.5284913673568</v>
+        <v>28.45459863496396</v>
       </c>
       <c r="J14">
-        <v>5.523210087500224</v>
+        <v>9.721407268969076</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,10 +1018,10 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>20.90298951468931</v>
+        <v>20.48960476863258</v>
       </c>
       <c r="N14">
-        <v>11.4918881450803</v>
+        <v>19.43076932829204</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>29.80568637988805</v>
+        <v>20.63654189212732</v>
       </c>
       <c r="C15">
-        <v>26.19628320010936</v>
+        <v>17.43615656340598</v>
       </c>
       <c r="D15">
-        <v>3.458747048359756</v>
+        <v>6.387873722804503</v>
       </c>
       <c r="E15">
-        <v>6.854362043890359</v>
+        <v>11.4914932924299</v>
       </c>
       <c r="F15">
-        <v>43.65059938575224</v>
+        <v>44.85957715446062</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I15">
-        <v>23.45328332626616</v>
+        <v>28.45117327975932</v>
       </c>
       <c r="J15">
-        <v>5.52517979850944</v>
+        <v>9.723620348901362</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,10 +1065,10 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>20.77651833322137</v>
+        <v>20.47095897425866</v>
       </c>
       <c r="N15">
-        <v>11.52681861118927</v>
+        <v>19.43883381533782</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>28.75556394690285</v>
+        <v>20.31773958030684</v>
       </c>
       <c r="C16">
-        <v>25.25918034690579</v>
+        <v>17.13580027681948</v>
       </c>
       <c r="D16">
-        <v>3.424264716727206</v>
+        <v>6.386457959528159</v>
       </c>
       <c r="E16">
-        <v>6.816154469456944</v>
+        <v>11.50013638094079</v>
       </c>
       <c r="F16">
-        <v>42.5171795050936</v>
+        <v>44.70558231144046</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I16">
-        <v>23.03047721478947</v>
+        <v>28.43371083143704</v>
       </c>
       <c r="J16">
-        <v>5.537407299596049</v>
+        <v>9.736612137844501</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,10 +1112,10 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>20.04292134703427</v>
+        <v>20.36515218776511</v>
       </c>
       <c r="N16">
-        <v>11.72741798638513</v>
+        <v>19.48563045036959</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>28.0997624173393</v>
+        <v>20.12101496726594</v>
       </c>
       <c r="C17">
-        <v>24.67525128099641</v>
+        <v>16.95015867783351</v>
       </c>
       <c r="D17">
-        <v>3.403358750735317</v>
+        <v>6.385646918140438</v>
       </c>
       <c r="E17">
-        <v>6.793676692066473</v>
+        <v>11.50579016170809</v>
       </c>
       <c r="F17">
-        <v>41.82617099302783</v>
+        <v>44.61423479003589</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I17">
-        <v>22.77820906931793</v>
+        <v>28.42493008877728</v>
       </c>
       <c r="J17">
-        <v>5.545722067087404</v>
+        <v>9.744858549876142</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,10 +1159,10 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>19.58480100921361</v>
+        <v>20.30119975860068</v>
       </c>
       <c r="N17">
-        <v>11.85089371165691</v>
+        <v>19.51485920285066</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>27.71820808075131</v>
+        <v>20.00748574415546</v>
       </c>
       <c r="C18">
-        <v>24.33597143207312</v>
+        <v>16.84291597377018</v>
       </c>
       <c r="D18">
-        <v>3.391417753918387</v>
+        <v>6.385201624387564</v>
       </c>
       <c r="E18">
-        <v>6.781092783358321</v>
+        <v>11.50917134845441</v>
       </c>
       <c r="F18">
-        <v>41.43025522462992</v>
+        <v>44.56285171452845</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I18">
-        <v>22.63565244485945</v>
+        <v>28.42058883696765</v>
       </c>
       <c r="J18">
-        <v>5.550793984122662</v>
+        <v>9.74970330431937</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,10 +1206,10 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>19.31825893970392</v>
+        <v>20.26477711321572</v>
       </c>
       <c r="N18">
-        <v>11.92207954802811</v>
+        <v>19.53186246851656</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>27.58826365216592</v>
+        <v>19.9689859894123</v>
       </c>
       <c r="C19">
-        <v>24.22050137951296</v>
+        <v>16.80652936634096</v>
       </c>
       <c r="D19">
-        <v>3.387388426097995</v>
+        <v>6.385054502706594</v>
       </c>
       <c r="E19">
-        <v>6.776890511617715</v>
+        <v>11.51033837343513</v>
       </c>
       <c r="F19">
-        <v>41.29646496381781</v>
+        <v>44.54565399765216</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I19">
-        <v>22.58781524659786</v>
+        <v>28.4192406851731</v>
       </c>
       <c r="J19">
-        <v>5.552560103332751</v>
+        <v>9.751361117872953</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,10 +1253,10 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>19.22748302121702</v>
+        <v>20.25250794485107</v>
       </c>
       <c r="N19">
-        <v>11.94621163856423</v>
+        <v>19.53765243486249</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>28.17002218689149</v>
+        <v>20.14199681631564</v>
       </c>
       <c r="C20">
-        <v>24.73776336850356</v>
+        <v>16.96996978915956</v>
       </c>
       <c r="D20">
-        <v>3.405575417529551</v>
+        <v>6.385731062794137</v>
       </c>
       <c r="E20">
-        <v>6.796033625578013</v>
+        <v>11.50517492909892</v>
       </c>
       <c r="F20">
-        <v>41.89957036511841</v>
+        <v>44.62383929629154</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I20">
-        <v>22.80479887234483</v>
+        <v>28.42579139514843</v>
       </c>
       <c r="J20">
-        <v>5.544806777902476</v>
+        <v>9.743970187880109</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,10 +1300,10 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>19.63388207966678</v>
+        <v>20.30797044469919</v>
       </c>
       <c r="N20">
-        <v>11.83773265211265</v>
+        <v>19.51172792444143</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>30.07330884520025</v>
+        <v>20.7184599329834</v>
       </c>
       <c r="C21">
-        <v>26.43550986792514</v>
+        <v>17.51324232538429</v>
       </c>
       <c r="D21">
-        <v>3.46773293632822</v>
+        <v>6.388256959083935</v>
       </c>
       <c r="E21">
-        <v>6.864530996639845</v>
+        <v>11.48937041413479</v>
       </c>
       <c r="F21">
-        <v>43.9446093600786</v>
+        <v>44.90029288570871</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I21">
-        <v>23.56470318792993</v>
+        <v>28.45627953571507</v>
       </c>
       <c r="J21">
-        <v>5.522282550400941</v>
+        <v>9.720351509744429</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>20.96348229569909</v>
+        <v>20.49856406776005</v>
       </c>
       <c r="N21">
-        <v>11.47514512953966</v>
+        <v>19.42691247555996</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>31.28060076558448</v>
+        <v>21.09092764479087</v>
       </c>
       <c r="C22">
-        <v>27.51676529801856</v>
+        <v>17.86328917262335</v>
       </c>
       <c r="D22">
-        <v>3.509272007264459</v>
+        <v>6.390095023411554</v>
       </c>
       <c r="E22">
-        <v>6.912557447211984</v>
+        <v>11.48019039074779</v>
       </c>
       <c r="F22">
-        <v>45.29613847851002</v>
+        <v>45.09106381564484</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I22">
-        <v>24.08557625144043</v>
+        <v>28.48253462275968</v>
       </c>
       <c r="J22">
-        <v>5.510350436185963</v>
+        <v>9.705818901391766</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,10 +1394,10 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>21.80697281473114</v>
+        <v>20.62613848218892</v>
       </c>
       <c r="N22">
-        <v>11.23936866802605</v>
+        <v>19.37317965758832</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>30.63948346258838</v>
+        <v>20.89256905257528</v>
       </c>
       <c r="C23">
-        <v>26.94215708868514</v>
+        <v>17.67696078624678</v>
       </c>
       <c r="D23">
-        <v>3.487008728266672</v>
+        <v>6.38909695335488</v>
       </c>
       <c r="E23">
-        <v>6.886616721754955</v>
+        <v>11.48498490001596</v>
       </c>
       <c r="F23">
-        <v>44.57334428038044</v>
+        <v>44.98833338792344</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I23">
-        <v>23.80527434721439</v>
+        <v>28.46794217101672</v>
       </c>
       <c r="J23">
-        <v>5.516452677391992</v>
+        <v>9.713492623053746</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,10 +1441,10 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>21.3590332224845</v>
+        <v>20.55778425801676</v>
       </c>
       <c r="N23">
-        <v>11.36511066289427</v>
+        <v>19.4017027870655</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>28.13827186320712</v>
+        <v>20.13251225014261</v>
       </c>
       <c r="C24">
-        <v>24.70951279963481</v>
+        <v>16.96101477964791</v>
       </c>
       <c r="D24">
-        <v>3.404573020899607</v>
+        <v>6.385692955616819</v>
       </c>
       <c r="E24">
-        <v>6.794967002461854</v>
+        <v>11.50545266847273</v>
       </c>
       <c r="F24">
-        <v>41.86638230238003</v>
+        <v>44.6194935650697</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I24">
-        <v>22.79276992797691</v>
+        <v>28.42539979683877</v>
       </c>
       <c r="J24">
-        <v>5.545219673970482</v>
+        <v>9.744371493063026</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,10 +1488,10 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>19.61170239565649</v>
+        <v>20.30490834235035</v>
       </c>
       <c r="N24">
-        <v>11.84368214723952</v>
+        <v>19.51314295465327</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>25.27289611316114</v>
+        <v>19.29882785535332</v>
       </c>
       <c r="C25">
-        <v>22.16968446223046</v>
+        <v>16.17152155471361</v>
       </c>
       <c r="D25">
-        <v>3.318786633094761</v>
+        <v>6.3828324239007</v>
       </c>
       <c r="E25">
-        <v>6.7091999798157</v>
+        <v>11.53247424787538</v>
       </c>
       <c r="F25">
-        <v>39.00534745965757</v>
+        <v>44.26599034030316</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I25">
-        <v>21.79708968615164</v>
+        <v>28.40660658895768</v>
       </c>
       <c r="J25">
-        <v>5.587223829746376</v>
+        <v>9.781566112807704</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,10 +1535,10 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>17.89892631574017</v>
+        <v>20.04605660915345</v>
       </c>
       <c r="N25">
-        <v>12.36642354560555</v>
+        <v>19.64068186629116</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_85/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_85/res_line/loading_percent.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>18.67841498217127</v>
+        <v>23.00920023551582</v>
       </c>
       <c r="C2">
-        <v>15.58052727591503</v>
+        <v>20.1772069845777</v>
       </c>
       <c r="D2">
-        <v>6.381431055820447</v>
+        <v>3.257611938355374</v>
       </c>
       <c r="E2">
-        <v>11.55663407063</v>
+        <v>6.656409105920663</v>
       </c>
       <c r="F2">
-        <v>44.0447152764466</v>
+        <v>36.94762849373057</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>7.344005520526261</v>
+        <v>4.251792669784106</v>
       </c>
       <c r="I2">
-        <v>28.41591799105309</v>
+        <v>21.13948662200734</v>
       </c>
       <c r="J2">
-        <v>9.812307771001171</v>
+        <v>5.626638019808893</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,10 +454,10 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>19.86841817526788</v>
+        <v>16.70530288993797</v>
       </c>
       <c r="N2">
-        <v>19.74095577190074</v>
+        <v>12.75860251012733</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>18.25681080096359</v>
+        <v>21.37493498006564</v>
       </c>
       <c r="C3">
-        <v>15.17686764404522</v>
+        <v>18.80479593456957</v>
       </c>
       <c r="D3">
-        <v>6.380924773044715</v>
+        <v>3.217128145029712</v>
       </c>
       <c r="E3">
-        <v>11.57567309220718</v>
+        <v>6.626691288458167</v>
       </c>
       <c r="F3">
-        <v>43.91941992684603</v>
+        <v>35.58511720926077</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I3">
-        <v>28.43656366824172</v>
+        <v>20.73752629642033</v>
       </c>
       <c r="J3">
-        <v>9.835241316783421</v>
+        <v>5.658237052754537</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,10 +501,10 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>19.75657196039053</v>
+        <v>15.87548913976725</v>
       </c>
       <c r="N3">
-        <v>19.8129151788179</v>
+        <v>13.02976952040288</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>17.99843605282652</v>
+        <v>20.32096823491307</v>
       </c>
       <c r="C4">
-        <v>14.92853205735604</v>
+        <v>17.93153630179401</v>
       </c>
       <c r="D4">
-        <v>6.380833982313594</v>
+        <v>3.192683038051287</v>
       </c>
       <c r="E4">
-        <v>11.58867990716314</v>
+        <v>6.611309119038363</v>
       </c>
       <c r="F4">
-        <v>43.85473432854631</v>
+        <v>34.76540665145652</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I4">
-        <v>28.45626921228926</v>
+        <v>20.51116698561362</v>
       </c>
       <c r="J4">
-        <v>9.850360458558169</v>
+        <v>5.679931596099938</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,10 +548,10 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>19.69225295019293</v>
+        <v>15.35681233663056</v>
       </c>
       <c r="N4">
-        <v>19.85908292750368</v>
+        <v>13.19919188912015</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>17.89343537626833</v>
+        <v>19.89598515459615</v>
       </c>
       <c r="C5">
-        <v>14.82737912150118</v>
+        <v>17.56715354749629</v>
       </c>
       <c r="D5">
-        <v>6.380852546114456</v>
+        <v>3.182816664778518</v>
       </c>
       <c r="E5">
-        <v>11.59431169799893</v>
+        <v>6.605743600912984</v>
       </c>
       <c r="F5">
-        <v>43.83146349030735</v>
+        <v>34.43582373496603</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I5">
-        <v>28.46606021128455</v>
+        <v>20.4238979369968</v>
       </c>
       <c r="J5">
-        <v>9.856782919271541</v>
+        <v>5.689332679935101</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,10 +595,10 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>19.66715794034377</v>
+        <v>15.14336616941331</v>
       </c>
       <c r="N5">
-        <v>19.87839697488432</v>
+        <v>13.26900643441141</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17.87602246339823</v>
+        <v>19.82804056711696</v>
       </c>
       <c r="C6">
-        <v>14.81059055635248</v>
+        <v>17.50613575618376</v>
       </c>
       <c r="D6">
-        <v>6.380858990999593</v>
+        <v>3.181183889843878</v>
       </c>
       <c r="E6">
-        <v>11.59526687719415</v>
+        <v>6.604861397240159</v>
       </c>
       <c r="F6">
-        <v>43.82778616641863</v>
+        <v>34.38137260865045</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I6">
-        <v>28.46779213812418</v>
+        <v>20.40970238631241</v>
       </c>
       <c r="J6">
-        <v>9.857865154341702</v>
+        <v>5.690927121777247</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,10 +642,10 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>19.66305886946195</v>
+        <v>15.10780539664139</v>
       </c>
       <c r="N6">
-        <v>19.88163431458894</v>
+        <v>13.28064689999763</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>17.99701858504258</v>
+        <v>20.31505480159916</v>
       </c>
       <c r="C7">
-        <v>14.92716746110031</v>
+        <v>17.92665651572408</v>
       </c>
       <c r="D7">
-        <v>6.380834007388833</v>
+        <v>3.192549601379904</v>
       </c>
       <c r="E7">
-        <v>11.58875451722243</v>
+        <v>6.611231237531314</v>
       </c>
       <c r="F7">
-        <v>43.8544079726228</v>
+        <v>34.76094343786177</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I7">
-        <v>28.45639413718213</v>
+        <v>20.5099701300377</v>
       </c>
       <c r="J7">
-        <v>9.850446015758365</v>
+        <v>5.680056133781837</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,10 +689,10 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>19.69190996784502</v>
+        <v>15.35394182169789</v>
       </c>
       <c r="N7">
-        <v>19.85934137605486</v>
+        <v>13.20013025080134</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>18.53304174297647</v>
+        <v>22.45609946356156</v>
       </c>
       <c r="C8">
-        <v>15.44154547841037</v>
+        <v>19.70737861948339</v>
       </c>
       <c r="D8">
-        <v>6.381210946943813</v>
+        <v>3.243562079793113</v>
       </c>
       <c r="E8">
-        <v>11.56292560674217</v>
+        <v>6.64555712742146</v>
       </c>
       <c r="F8">
-        <v>43.99897862159582</v>
+        <v>36.47444809677937</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I8">
-        <v>28.42157396885901</v>
+        <v>20.99654831991076</v>
       </c>
       <c r="J8">
-        <v>9.820000038012115</v>
+        <v>5.637047422894528</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,10 +736,10 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>19.82896247084893</v>
+        <v>16.4212052275405</v>
       </c>
       <c r="N8">
-        <v>19.76535631902192</v>
+        <v>12.85151717702265</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>19.58105183694634</v>
+        <v>26.26140738263847</v>
       </c>
       <c r="C9">
-        <v>16.43933353184716</v>
+        <v>23.04369942780253</v>
       </c>
       <c r="D9">
-        <v>6.383687001542272</v>
+        <v>3.347333881938409</v>
       </c>
       <c r="E9">
-        <v>11.52271041742152</v>
+        <v>6.736425024248923</v>
       </c>
       <c r="F9">
-        <v>44.37906107582295</v>
+        <v>39.96155196938385</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I9">
-        <v>28.40932922777305</v>
+        <v>22.12028903272094</v>
       </c>
       <c r="J9">
-        <v>9.768516665221979</v>
+        <v>5.571697571520045</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>20.13130332436365</v>
+        <v>18.43407539941914</v>
       </c>
       <c r="N9">
-        <v>19.59673510657795</v>
+        <v>12.18931794476326</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>20.3401327206374</v>
+        <v>28.82981227855532</v>
       </c>
       <c r="C10">
-        <v>17.15691700166241</v>
+        <v>25.32535406959452</v>
       </c>
       <c r="D10">
-        <v>6.386553371959587</v>
+        <v>3.426662083035576</v>
       </c>
       <c r="E10">
-        <v>11.49950875631161</v>
+        <v>6.818766660108465</v>
       </c>
       <c r="F10">
-        <v>44.71616186142798</v>
+        <v>42.5962393997934</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I10">
-        <v>28.43480893340833</v>
+        <v>23.0596121861917</v>
       </c>
       <c r="J10">
-        <v>9.73568493171828</v>
+        <v>5.536498428329835</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,10 +830,10 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>20.37249784705768</v>
+        <v>20.09478887920589</v>
       </c>
       <c r="N10">
-        <v>19.482321190294</v>
+        <v>11.71335003462272</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>20.68134180755722</v>
+        <v>29.95214872061397</v>
       </c>
       <c r="C11">
-        <v>17.47831832097467</v>
+        <v>26.32718480741299</v>
       </c>
       <c r="D11">
-        <v>6.388082347605854</v>
+        <v>3.4636548008314</v>
       </c>
       <c r="E11">
-        <v>11.49032751390446</v>
+        <v>6.8599056303524</v>
       </c>
       <c r="F11">
-        <v>44.88178729673984</v>
+        <v>43.81124739920257</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I11">
-        <v>28.45393521285767</v>
+        <v>23.51407707315849</v>
       </c>
       <c r="J11">
-        <v>9.721829280286684</v>
+        <v>5.523583046587053</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,10 +877,10 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>20.48603514792901</v>
+        <v>20.87883801119597</v>
       </c>
       <c r="N11">
-        <v>19.43230925413054</v>
+        <v>11.49856635876043</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>20.80982493380789</v>
+        <v>30.37084131668135</v>
       </c>
       <c r="C12">
-        <v>17.5991748550555</v>
+        <v>26.70166735777676</v>
       </c>
       <c r="D12">
-        <v>6.38869347917799</v>
+        <v>3.47781765112188</v>
       </c>
       <c r="E12">
-        <v>11.48704795270112</v>
+        <v>6.87604068234984</v>
       </c>
       <c r="F12">
-        <v>44.9462404131806</v>
+        <v>44.27388606215658</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I12">
-        <v>28.46226373863281</v>
+        <v>23.69030753262864</v>
       </c>
       <c r="J12">
-        <v>9.716737480519393</v>
+        <v>5.519167840801845</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,10 +924,10 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>20.52954822682887</v>
+        <v>21.17134688095583</v>
       </c>
       <c r="N12">
-        <v>19.4136623894403</v>
+        <v>11.41744048875855</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>20.78218811574161</v>
+        <v>30.2809437286514</v>
       </c>
       <c r="C13">
-        <v>17.57318601664471</v>
+        <v>26.62122793244685</v>
       </c>
       <c r="D13">
-        <v>6.3885604350468</v>
+        <v>3.474760117712933</v>
       </c>
       <c r="E13">
-        <v>11.48774550043745</v>
+        <v>6.872540486571986</v>
       </c>
       <c r="F13">
-        <v>44.93228267346127</v>
+        <v>44.17413155307318</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I13">
-        <v>28.46042172434607</v>
+        <v>23.65216525962116</v>
       </c>
       <c r="J13">
-        <v>9.717827198932957</v>
+        <v>5.520097062202802</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,10 +971,10 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>20.52015431093047</v>
+        <v>21.10854126617165</v>
       </c>
       <c r="N13">
-        <v>19.4176653755862</v>
+        <v>11.43490378034322</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>20.69192747305243</v>
+        <v>29.98671939326817</v>
       </c>
       <c r="C14">
-        <v>17.48827901391654</v>
+        <v>26.35808978622101</v>
       </c>
       <c r="D14">
-        <v>6.388131982856442</v>
+        <v>3.464816734271879</v>
       </c>
       <c r="E14">
-        <v>11.49005375252584</v>
+        <v>6.86122174802921</v>
       </c>
       <c r="F14">
-        <v>44.88705532346356</v>
+        <v>43.84925663376034</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I14">
-        <v>28.45459863496396</v>
+        <v>23.52849136735686</v>
       </c>
       <c r="J14">
-        <v>9.721407268969076</v>
+        <v>5.523210087500282</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,10 +1018,10 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>20.48960476863258</v>
+        <v>20.90298951468936</v>
       </c>
       <c r="N14">
-        <v>19.43076932829204</v>
+        <v>11.49188814508034</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>20.63654189212732</v>
+        <v>29.80568637988801</v>
       </c>
       <c r="C15">
-        <v>17.43615656340598</v>
+        <v>26.19628320010942</v>
       </c>
       <c r="D15">
-        <v>6.387873722804503</v>
+        <v>3.458747048359568</v>
       </c>
       <c r="E15">
-        <v>11.4914932924299</v>
+        <v>6.854362043890366</v>
       </c>
       <c r="F15">
-        <v>44.85957715446062</v>
+        <v>43.6505993857523</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I15">
-        <v>28.45117327975932</v>
+        <v>23.45328332626623</v>
       </c>
       <c r="J15">
-        <v>9.723620348901362</v>
+        <v>5.525179798509475</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,10 +1065,10 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>20.47095897425866</v>
+        <v>20.77651833322135</v>
       </c>
       <c r="N15">
-        <v>19.43883381533782</v>
+        <v>11.52681861118928</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>20.31773958030684</v>
+        <v>28.75556394690286</v>
       </c>
       <c r="C16">
-        <v>17.13580027681948</v>
+        <v>25.25918034690587</v>
       </c>
       <c r="D16">
-        <v>6.386457959528159</v>
+        <v>3.42426471672715</v>
       </c>
       <c r="E16">
-        <v>11.50013638094079</v>
+        <v>6.816154469456801</v>
       </c>
       <c r="F16">
-        <v>44.70558231144046</v>
+        <v>42.5171795050936</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I16">
-        <v>28.43371083143704</v>
+        <v>23.03047721478952</v>
       </c>
       <c r="J16">
-        <v>9.736612137844501</v>
+        <v>5.537407299595969</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,10 +1112,10 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>20.36515218776511</v>
+        <v>20.04292134703432</v>
       </c>
       <c r="N16">
-        <v>19.48563045036959</v>
+        <v>11.72741798638514</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>20.12101496726594</v>
+        <v>28.09976241733934</v>
       </c>
       <c r="C17">
-        <v>16.95015867783351</v>
+        <v>24.67525128099631</v>
       </c>
       <c r="D17">
-        <v>6.385646918140438</v>
+        <v>3.403358750735432</v>
       </c>
       <c r="E17">
-        <v>11.50579016170809</v>
+        <v>6.793676692066468</v>
       </c>
       <c r="F17">
-        <v>44.61423479003589</v>
+        <v>41.82617099302798</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I17">
-        <v>28.42493008877728</v>
+        <v>22.77820906931798</v>
       </c>
       <c r="J17">
-        <v>9.744858549876142</v>
+        <v>5.545722067087401</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,10 +1159,10 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>20.30119975860068</v>
+        <v>19.58480100921359</v>
       </c>
       <c r="N17">
-        <v>19.51485920285066</v>
+        <v>11.85089371165696</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>20.00748574415546</v>
+        <v>27.71820808075136</v>
       </c>
       <c r="C18">
-        <v>16.84291597377018</v>
+        <v>24.33597143207317</v>
       </c>
       <c r="D18">
-        <v>6.385201624387564</v>
+        <v>3.39141775391827</v>
       </c>
       <c r="E18">
-        <v>11.50917134845441</v>
+        <v>6.781092783358162</v>
       </c>
       <c r="F18">
-        <v>44.56285171452845</v>
+        <v>41.43025522462994</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I18">
-        <v>28.42058883696765</v>
+        <v>22.63565244485945</v>
       </c>
       <c r="J18">
-        <v>9.74970330431937</v>
+        <v>5.550793984122573</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,10 +1206,10 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>20.26477711321572</v>
+        <v>19.31825893970397</v>
       </c>
       <c r="N18">
-        <v>19.53186246851656</v>
+        <v>11.92207954802799</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>19.9689859894123</v>
+        <v>27.58826365216595</v>
       </c>
       <c r="C19">
-        <v>16.80652936634096</v>
+        <v>24.22050137951291</v>
       </c>
       <c r="D19">
-        <v>6.385054502706594</v>
+        <v>3.387388426098043</v>
       </c>
       <c r="E19">
-        <v>11.51033837343513</v>
+        <v>6.776890511617692</v>
       </c>
       <c r="F19">
-        <v>44.54565399765216</v>
+        <v>41.2964649638179</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I19">
-        <v>28.4192406851731</v>
+        <v>22.58781524659792</v>
       </c>
       <c r="J19">
-        <v>9.751361117872953</v>
+        <v>5.552560103332778</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,10 +1253,10 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>20.25250794485107</v>
+        <v>19.227483021217</v>
       </c>
       <c r="N19">
-        <v>19.53765243486249</v>
+        <v>11.94621163856424</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>20.14199681631564</v>
+        <v>28.17002218689143</v>
       </c>
       <c r="C20">
-        <v>16.96996978915956</v>
+        <v>24.73776336850337</v>
       </c>
       <c r="D20">
-        <v>6.385731062794137</v>
+        <v>3.405575417529372</v>
       </c>
       <c r="E20">
-        <v>11.50517492909892</v>
+        <v>6.796033625577913</v>
       </c>
       <c r="F20">
-        <v>44.62383929629154</v>
+        <v>41.89957036511843</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I20">
-        <v>28.42579139514843</v>
+        <v>22.80479887234491</v>
       </c>
       <c r="J20">
-        <v>9.743970187880109</v>
+        <v>5.544806777902444</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,10 +1300,10 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>20.30797044469919</v>
+        <v>19.63388207966673</v>
       </c>
       <c r="N20">
-        <v>19.51172792444143</v>
+        <v>11.83773265211278</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>20.7184599329834</v>
+        <v>30.07330884520035</v>
       </c>
       <c r="C21">
-        <v>17.51324232538429</v>
+        <v>26.43550986792518</v>
       </c>
       <c r="D21">
-        <v>6.388256959083935</v>
+        <v>3.467732936328331</v>
       </c>
       <c r="E21">
-        <v>11.48937041413479</v>
+        <v>6.864530996639845</v>
       </c>
       <c r="F21">
-        <v>44.90029288570871</v>
+        <v>43.94460936007876</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I21">
-        <v>28.45627953571507</v>
+        <v>23.56470318793003</v>
       </c>
       <c r="J21">
-        <v>9.720351509744429</v>
+        <v>5.522282550400869</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>20.49856406776005</v>
+        <v>20.96348229569913</v>
       </c>
       <c r="N21">
-        <v>19.42691247555996</v>
+        <v>11.47514512953968</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>21.09092764479087</v>
+        <v>31.28060076558458</v>
       </c>
       <c r="C22">
-        <v>17.86328917262335</v>
+        <v>27.51676529801863</v>
       </c>
       <c r="D22">
-        <v>6.390095023411554</v>
+        <v>3.509272007264503</v>
       </c>
       <c r="E22">
-        <v>11.48019039074779</v>
+        <v>6.912557447212024</v>
       </c>
       <c r="F22">
-        <v>45.09106381564484</v>
+        <v>45.29613847851004</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I22">
-        <v>28.48253462275968</v>
+        <v>24.08557625144041</v>
       </c>
       <c r="J22">
-        <v>9.705818901391766</v>
+        <v>5.510350436185997</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,10 +1394,10 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>20.62613848218892</v>
+        <v>21.80697281473119</v>
       </c>
       <c r="N22">
-        <v>19.37317965758832</v>
+        <v>11.23936866802594</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>20.89256905257528</v>
+        <v>30.63948346258841</v>
       </c>
       <c r="C23">
-        <v>17.67696078624678</v>
+        <v>26.94215708868525</v>
       </c>
       <c r="D23">
-        <v>6.38909695335488</v>
+        <v>3.487008728266667</v>
       </c>
       <c r="E23">
-        <v>11.48498490001596</v>
+        <v>6.88661672175485</v>
       </c>
       <c r="F23">
-        <v>44.98833338792344</v>
+        <v>44.57334428038047</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I23">
-        <v>28.46794217101672</v>
+        <v>23.80527434721439</v>
       </c>
       <c r="J23">
-        <v>9.713492623053746</v>
+        <v>5.516452677391979</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,10 +1441,10 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>20.55778425801676</v>
+        <v>21.35903322248454</v>
       </c>
       <c r="N23">
-        <v>19.4017027870655</v>
+        <v>11.36511066289418</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>20.13251225014261</v>
+        <v>28.13827186320717</v>
       </c>
       <c r="C24">
-        <v>16.96101477964791</v>
+        <v>24.70951279963479</v>
       </c>
       <c r="D24">
-        <v>6.385692955616819</v>
+        <v>3.404573020899604</v>
       </c>
       <c r="E24">
-        <v>11.50545266847273</v>
+        <v>6.794967002461894</v>
       </c>
       <c r="F24">
-        <v>44.6194935650697</v>
+        <v>41.86638230238003</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I24">
-        <v>28.42539979683877</v>
+        <v>22.79276992797691</v>
       </c>
       <c r="J24">
-        <v>9.744371493063026</v>
+        <v>5.545219673970563</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,10 +1488,10 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>20.30490834235035</v>
+        <v>19.61170239565649</v>
       </c>
       <c r="N24">
-        <v>19.51314295465327</v>
+        <v>11.84368214723958</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>19.29882785535332</v>
+        <v>25.27289611316115</v>
       </c>
       <c r="C25">
-        <v>16.17152155471361</v>
+        <v>22.16968446223052</v>
       </c>
       <c r="D25">
-        <v>6.3828324239007</v>
+        <v>3.318786633094881</v>
       </c>
       <c r="E25">
-        <v>11.53247424787538</v>
+        <v>6.709199979815754</v>
       </c>
       <c r="F25">
-        <v>44.26599034030316</v>
+        <v>39.00534745965768</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I25">
-        <v>28.40660658895768</v>
+        <v>21.79708968615173</v>
       </c>
       <c r="J25">
-        <v>9.781566112807704</v>
+        <v>5.587223829746379</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,10 +1535,10 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>20.04605660915345</v>
+        <v>17.89892631574018</v>
       </c>
       <c r="N25">
-        <v>19.64068186629116</v>
+        <v>12.36642354560556</v>
       </c>
       <c r="O25">
         <v>0</v>
